--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N2">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O2">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P2">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q2">
-        <v>0.004352866600000001</v>
+        <v>0.03352106105888888</v>
       </c>
       <c r="R2">
-        <v>0.0391757994</v>
+        <v>0.30168954953</v>
       </c>
       <c r="S2">
-        <v>0.0004611048398368197</v>
+        <v>0.009713471046809927</v>
       </c>
       <c r="T2">
-        <v>0.0004611048398368197</v>
+        <v>0.009713471046809925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q3">
-        <v>0.081466383685</v>
+        <v>0.2382160171772222</v>
       </c>
       <c r="R3">
-        <v>0.7331974531650001</v>
+        <v>2.143944154595</v>
       </c>
       <c r="S3">
-        <v>0.008629840345016964</v>
+        <v>0.06902837537488207</v>
       </c>
       <c r="T3">
-        <v>0.008629840345016966</v>
+        <v>0.06902837537488206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N4">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q4">
-        <v>0.005577414065</v>
+        <v>0.01988672111555556</v>
       </c>
       <c r="R4">
-        <v>0.050196726585</v>
+        <v>0.17898049004</v>
       </c>
       <c r="S4">
-        <v>0.0005908227509534637</v>
+        <v>0.005762618594697176</v>
       </c>
       <c r="T4">
-        <v>0.0005908227509534638</v>
+        <v>0.005762618594697176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N5">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O5">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P5">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q5">
-        <v>0.220821921005</v>
+        <v>0.2294631805311111</v>
       </c>
       <c r="R5">
-        <v>1.987397289045</v>
+        <v>2.06516862478</v>
       </c>
       <c r="S5">
-        <v>0.02339195428535976</v>
+        <v>0.06649204679059008</v>
       </c>
       <c r="T5">
-        <v>0.02339195428535976</v>
+        <v>0.06649204679059008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H6">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J6">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N6">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q6">
-        <v>0.00588556061</v>
+        <v>0.02513758373388889</v>
       </c>
       <c r="R6">
-        <v>0.05297004549</v>
+        <v>0.226238253605</v>
       </c>
       <c r="S6">
-        <v>0.0006234651166254311</v>
+        <v>0.007284172519388126</v>
       </c>
       <c r="T6">
-        <v>0.0006234651166254313</v>
+        <v>0.007284172519388125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H7">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J7">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N7">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O7">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P7">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q7">
-        <v>0.013534331835</v>
+        <v>0.01491743377555555</v>
       </c>
       <c r="R7">
-        <v>0.121808986515</v>
+        <v>0.13425690398</v>
       </c>
       <c r="S7">
-        <v>0.001433709434852895</v>
+        <v>0.004322657353149022</v>
       </c>
       <c r="T7">
-        <v>0.001433709434852896</v>
+        <v>0.004322657353149021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N8">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O8">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P8">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q8">
-        <v>0.03832274357333333</v>
+        <v>0.1009267925493333</v>
       </c>
       <c r="R8">
-        <v>0.34490469216</v>
+        <v>0.9083411329440001</v>
       </c>
       <c r="S8">
-        <v>0.004059578241494782</v>
+        <v>0.02924577702218584</v>
       </c>
       <c r="T8">
-        <v>0.004059578241494784</v>
+        <v>0.02924577702218584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q9">
         <v>0.7172320263173333</v>
@@ -1013,10 +1013,10 @@
         <v>6.455088236856</v>
       </c>
       <c r="S9">
-        <v>0.07597732460280117</v>
+        <v>0.2078338901396685</v>
       </c>
       <c r="T9">
-        <v>0.07597732460280121</v>
+        <v>0.2078338901396685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J10">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N10">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q10">
-        <v>0.04910368928266667</v>
+        <v>0.05987587842133334</v>
       </c>
       <c r="R10">
-        <v>0.441933203544</v>
+        <v>0.5388829057920002</v>
       </c>
       <c r="S10">
-        <v>0.005201617890628894</v>
+        <v>0.01735036401223067</v>
       </c>
       <c r="T10">
-        <v>0.005201617890628896</v>
+        <v>0.01735036401223067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J11">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N11">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O11">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P11">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q11">
-        <v>1.944121571298667</v>
+        <v>0.6908785726826667</v>
       </c>
       <c r="R11">
-        <v>17.497094141688</v>
+        <v>6.217907154144</v>
       </c>
       <c r="S11">
-        <v>0.2059433353085016</v>
+        <v>0.2001973923446232</v>
       </c>
       <c r="T11">
-        <v>0.2059433353085017</v>
+        <v>0.2001973923446232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J12">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N12">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q12">
-        <v>0.05181661897066666</v>
+        <v>0.07568542338933333</v>
       </c>
       <c r="R12">
-        <v>0.466349570736</v>
+        <v>0.681168810504</v>
       </c>
       <c r="S12">
-        <v>0.005489002073106204</v>
+        <v>0.02193153037328731</v>
       </c>
       <c r="T12">
-        <v>0.005489002073106207</v>
+        <v>0.02193153037328731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.498792</v>
       </c>
       <c r="I13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J13">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N13">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O13">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P13">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q13">
-        <v>0.119156587144</v>
+        <v>0.04491411358933333</v>
       </c>
       <c r="R13">
-        <v>1.072409284296</v>
+        <v>0.404227022304</v>
       </c>
       <c r="S13">
-        <v>0.01262241278667629</v>
+        <v>0.01301486075207139</v>
       </c>
       <c r="T13">
-        <v>0.01262241278667629</v>
+        <v>0.01301486075207139</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H14">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J14">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N14">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O14">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P14">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q14">
-        <v>0.0253392846</v>
+        <v>0.01663477470022223</v>
       </c>
       <c r="R14">
-        <v>0.2280535614</v>
+        <v>0.149712972302</v>
       </c>
       <c r="S14">
-        <v>0.002684223487818944</v>
+        <v>0.004820294982218882</v>
       </c>
       <c r="T14">
-        <v>0.002684223487818945</v>
+        <v>0.004820294982218881</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H15">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J15">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q15">
-        <v>0.474239178735</v>
+        <v>0.1182143300525556</v>
       </c>
       <c r="R15">
-        <v>4.268152608615</v>
+        <v>1.063928970473</v>
       </c>
       <c r="S15">
-        <v>0.05023677512996769</v>
+        <v>0.03425522450695338</v>
       </c>
       <c r="T15">
-        <v>0.0502367751299677</v>
+        <v>0.03425522450695337</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H16">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J16">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N16">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q16">
-        <v>0.032467726515</v>
+        <v>0.009868754592888893</v>
       </c>
       <c r="R16">
-        <v>0.292209538635</v>
+        <v>0.08881879133600003</v>
       </c>
       <c r="S16">
-        <v>0.003439348643159598</v>
+        <v>0.002859690564021668</v>
       </c>
       <c r="T16">
-        <v>0.003439348643159599</v>
+        <v>0.002859690564021668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H17">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J17">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N17">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O17">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P17">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q17">
-        <v>1.285467719655</v>
+        <v>0.1138707484057778</v>
       </c>
       <c r="R17">
-        <v>11.569209476895</v>
+        <v>1.024836735652</v>
       </c>
       <c r="S17">
-        <v>0.1361712731988893</v>
+        <v>0.03299657537018201</v>
       </c>
       <c r="T17">
-        <v>0.1361712731988893</v>
+        <v>0.032996575370182</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H18">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J18">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N18">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q18">
-        <v>0.03426153590999999</v>
+        <v>0.01247448704522222</v>
       </c>
       <c r="R18">
-        <v>0.30835382319</v>
+        <v>0.112270383407</v>
       </c>
       <c r="S18">
-        <v>0.003629369213461306</v>
+        <v>0.003614759345615655</v>
       </c>
       <c r="T18">
-        <v>0.003629369213461307</v>
+        <v>0.003614759345615653</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H19">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J19">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N19">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O19">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P19">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q19">
-        <v>0.07878722638499999</v>
+        <v>0.00740275343688889</v>
       </c>
       <c r="R19">
-        <v>0.7090850374650001</v>
+        <v>0.06662478093200001</v>
       </c>
       <c r="S19">
-        <v>0.008346033715676621</v>
+        <v>0.002145112025230038</v>
       </c>
       <c r="T19">
-        <v>0.008346033715676627</v>
+        <v>0.002145112025230038</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H20">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J20">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N20">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O20">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P20">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q20">
-        <v>0.03468517461777777</v>
+        <v>0.02851510898333333</v>
       </c>
       <c r="R20">
-        <v>0.31216657156</v>
+        <v>0.25663598085</v>
       </c>
       <c r="S20">
-        <v>0.003674245814664419</v>
+        <v>0.008262885384792737</v>
       </c>
       <c r="T20">
-        <v>0.00367424581466442</v>
+        <v>0.008262885384792737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H21">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J21">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q21">
-        <v>0.6491528464467777</v>
+        <v>0.2026414283083333</v>
       </c>
       <c r="R21">
-        <v>5.842375618020999</v>
+        <v>1.823772854775</v>
       </c>
       <c r="S21">
-        <v>0.06876560822940381</v>
+        <v>0.05871984909127007</v>
       </c>
       <c r="T21">
-        <v>0.06876560822940382</v>
+        <v>0.05871984909127006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H22">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J22">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N22">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q22">
-        <v>0.04444280023655555</v>
+        <v>0.01691688753333333</v>
       </c>
       <c r="R22">
-        <v>0.399985202129</v>
+        <v>0.1522519878</v>
       </c>
       <c r="S22">
-        <v>0.004707883831077367</v>
+        <v>0.004902043433783234</v>
       </c>
       <c r="T22">
-        <v>0.004707883831077368</v>
+        <v>0.004902043433783234</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H23">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J23">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N23">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O23">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P23">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q23">
-        <v>1.759586863859222</v>
+        <v>0.1951957185666666</v>
       </c>
       <c r="R23">
-        <v>15.836281774733</v>
+        <v>1.7567614671</v>
       </c>
       <c r="S23">
-        <v>0.1863953329143554</v>
+        <v>0.05656228952382161</v>
       </c>
       <c r="T23">
-        <v>0.1863953329143554</v>
+        <v>0.05656228952382161</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H24">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J24">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N24">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q24">
-        <v>0.04689822046955555</v>
+        <v>0.02138359935833333</v>
       </c>
       <c r="R24">
-        <v>0.422083984226</v>
+        <v>0.192452394225</v>
       </c>
       <c r="S24">
-        <v>0.004967989700912558</v>
+        <v>0.006196372271118049</v>
       </c>
       <c r="T24">
-        <v>0.004967989700912559</v>
+        <v>0.006196372271118048</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H25">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J25">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N25">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O25">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P25">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q25">
-        <v>0.1078463243123333</v>
+        <v>0.01268970123333333</v>
       </c>
       <c r="R25">
-        <v>0.970616918811</v>
+        <v>0.1142073111</v>
       </c>
       <c r="S25">
-        <v>0.01142430188396496</v>
+        <v>0.003677122430764047</v>
       </c>
       <c r="T25">
-        <v>0.01142430188396497</v>
+        <v>0.003677122430764047</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H26">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I26">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J26">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N26">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O26">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P26">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q26">
-        <v>0.003058953857777777</v>
+        <v>0.006523115724000001</v>
       </c>
       <c r="R26">
-        <v>0.02753058472</v>
+        <v>0.05870804151600001</v>
       </c>
       <c r="S26">
-        <v>0.0003240389743758385</v>
+        <v>0.001890217484725551</v>
       </c>
       <c r="T26">
-        <v>0.0003240389743758386</v>
+        <v>0.001890217484725551</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H27">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I27">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J27">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.941443</v>
       </c>
       <c r="O27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q27">
-        <v>0.05725006795577776</v>
+        <v>0.046356248826</v>
       </c>
       <c r="R27">
-        <v>0.5152506116019999</v>
+        <v>0.417206239434</v>
       </c>
       <c r="S27">
-        <v>0.006064574415259118</v>
+        <v>0.01343275142809555</v>
       </c>
       <c r="T27">
-        <v>0.006064574415259119</v>
+        <v>0.01343275142809554</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H28">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I28">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J28">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N28">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q28">
-        <v>0.003919498077555555</v>
+        <v>0.003869906832000001</v>
       </c>
       <c r="R28">
-        <v>0.03527548269799999</v>
+        <v>0.03482916148800001</v>
       </c>
       <c r="S28">
-        <v>0.0004151975466677468</v>
+        <v>0.001121391351557949</v>
       </c>
       <c r="T28">
-        <v>0.0004151975466677469</v>
+        <v>0.001121391351557949</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H29">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I29">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J29">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N29">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O29">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P29">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q29">
-        <v>0.1551814308162222</v>
+        <v>0.044652968424</v>
       </c>
       <c r="R29">
-        <v>1.396632877346</v>
+        <v>0.401876715816</v>
       </c>
       <c r="S29">
-        <v>0.01643857149267166</v>
+        <v>0.01293918814737599</v>
       </c>
       <c r="T29">
-        <v>0.01643857149267167</v>
+        <v>0.01293918814737599</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H30">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I30">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J30">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N30">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q30">
-        <v>0.004136046423555554</v>
+        <v>0.004891711734000001</v>
       </c>
       <c r="R30">
-        <v>0.03722441781199999</v>
+        <v>0.044025405606</v>
       </c>
       <c r="S30">
-        <v>0.000438136795575411</v>
+        <v>0.001417481988833094</v>
       </c>
       <c r="T30">
-        <v>0.0004381367955754111</v>
+        <v>0.001417481988833093</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H31">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I31">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J31">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N31">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O31">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P31">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q31">
-        <v>0.009511179731333331</v>
+        <v>0.002902895784</v>
       </c>
       <c r="R31">
-        <v>0.08560061758199999</v>
+        <v>0.026126062056</v>
       </c>
       <c r="S31">
-        <v>0.00100753168192098</v>
+        <v>0.0008411784489832988</v>
       </c>
       <c r="T31">
-        <v>0.001007531681920981</v>
+        <v>0.0008411784489832987</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H32">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J32">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N32">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O32">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P32">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q32">
-        <v>0.01814520351111111</v>
+        <v>0.02003149731511111</v>
       </c>
       <c r="R32">
-        <v>0.1633068316</v>
+        <v>0.180283475836</v>
       </c>
       <c r="S32">
-        <v>0.001922145089122966</v>
+        <v>0.005804570710120359</v>
       </c>
       <c r="T32">
-        <v>0.001922145089122967</v>
+        <v>0.005804570710120358</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H33">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J33">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.941443</v>
       </c>
       <c r="O33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q33">
-        <v>0.3395978437011111</v>
+        <v>0.1423529971237778</v>
       </c>
       <c r="R33">
-        <v>3.05638059331</v>
+        <v>1.281176974114</v>
       </c>
       <c r="S33">
-        <v>0.03597404279026839</v>
+        <v>0.04124993876414798</v>
       </c>
       <c r="T33">
-        <v>0.0359740427902684</v>
+        <v>0.04124993876414797</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H34">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J34">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N34">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q34">
-        <v>0.02324980813222222</v>
+        <v>0.01188389591644445</v>
       </c>
       <c r="R34">
-        <v>0.20924827319</v>
+        <v>0.106955063248</v>
       </c>
       <c r="S34">
-        <v>0.002462882518624648</v>
+        <v>0.003443622464840679</v>
       </c>
       <c r="T34">
-        <v>0.002462882518624649</v>
+        <v>0.003443622464840679</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H35">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J35">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N35">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O35">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P35">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q35">
-        <v>0.9205103359588888</v>
+        <v>0.1371224817928889</v>
       </c>
       <c r="R35">
-        <v>8.284593023629998</v>
+        <v>1.234102336136</v>
       </c>
       <c r="S35">
-        <v>0.09751086124037441</v>
+        <v>0.03973428091736237</v>
       </c>
       <c r="T35">
-        <v>0.09751086124037445</v>
+        <v>0.03973428091736237</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H36">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J36">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N36">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q36">
-        <v>0.02453433676222222</v>
+        <v>0.01502170352511111</v>
       </c>
       <c r="R36">
-        <v>0.22080903086</v>
+        <v>0.135195331726</v>
       </c>
       <c r="S36">
-        <v>0.002598954312830784</v>
+        <v>0.004352871826121304</v>
       </c>
       <c r="T36">
-        <v>0.002598954312830784</v>
+        <v>0.004352871826121303</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H37">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J37">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N37">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O37">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P37">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q37">
-        <v>0.05641873002333332</v>
+        <v>0.008914351908444444</v>
       </c>
       <c r="R37">
-        <v>0.50776857021</v>
+        <v>0.08022916717600001</v>
       </c>
       <c r="S37">
-        <v>0.005976509703101371</v>
+        <v>0.002583131214481314</v>
       </c>
       <c r="T37">
-        <v>0.005976509703101374</v>
+        <v>0.002583131214481314</v>
       </c>
     </row>
   </sheetData>
